--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/20.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/20.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02973926916674328</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.939902160338373</v>
+        <v>-1.937918685006874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1291626502982529</v>
+        <v>0.1290516866433438</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1468244001338548</v>
+        <v>-0.1467426374407639</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.003501805997866341</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.082126174897835</v>
+        <v>-2.079632412758563</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06656454844863335</v>
+        <v>0.06747415840926947</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.119828110932953</v>
+        <v>-0.1195974233345894</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.02481955742603085</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.293548438701869</v>
+        <v>-2.291040806105733</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05315400673363696</v>
+        <v>0.05428116385981847</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1428632896632195</v>
+        <v>-0.1428136480281286</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.02561990722303</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.463237417899415</v>
+        <v>-2.46069109402887</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0002939737302577793</v>
+        <v>0.0004783917098329224</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1682214049061218</v>
+        <v>-0.1682958673587581</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.007099371476789758</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.533178831622259</v>
+        <v>-2.529711217406351</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07344822327714723</v>
+        <v>-0.07222178288078392</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1717766220074844</v>
+        <v>-0.1719781086440298</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.02640166686419455</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.332766790471768</v>
+        <v>-2.329067028609405</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1240564102042245</v>
+        <v>-0.1219262000395888</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1476128261029455</v>
+        <v>-0.1476245064876728</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.06624184632660512</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.024557208697351</v>
+        <v>-2.020605588539306</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1726803917757569</v>
+        <v>-0.170408556946303</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1165984845558629</v>
+        <v>-0.1168569130679537</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1029245269134217</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.670391883237537</v>
+        <v>-1.666503775171447</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1029105337035939</v>
+        <v>-0.09944875968004933</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07359714818241991</v>
+        <v>-0.07414466621651068</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1265318938920507</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.238438115590289</v>
+        <v>-1.235078544933108</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009994985166375821</v>
+        <v>0.01255298942164786</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01080047979243678</v>
+        <v>-0.01130127628761846</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.127577969251821</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.924748243306646</v>
+        <v>-0.9224223866978284</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07394947169244956</v>
+        <v>0.07658631854463067</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01603475219834446</v>
+        <v>-0.01657204989579886</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1017392058629282</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5588397510516533</v>
+        <v>-0.55734028166229</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1445281964069761</v>
+        <v>0.1472730868178844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02107775830434311</v>
+        <v>-0.02067624507934322</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.05034452924268201</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1134287201505001</v>
+        <v>-0.1126067130753185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009025513234012445</v>
+        <v>0.01225951975537521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04770364721027479</v>
+        <v>0.0481767027917292</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.02598779781518178</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3408652433357415</v>
+        <v>0.3412915773782869</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1638617013066684</v>
+        <v>-0.1608364816623056</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1162937864249836</v>
+        <v>0.1172413576359834</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1264980921940956</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8857770915842316</v>
+        <v>0.8853434573012317</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1847827304012991</v>
+        <v>-0.181922496191209</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1981601429303253</v>
+        <v>0.1991047940451432</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.251424788731048</v>
       </c>
       <c r="E16" t="n">
-        <v>1.584731313664044</v>
+        <v>1.58249159989259</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5194053121643002</v>
+        <v>-0.5176240534933916</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2631162224467624</v>
+        <v>0.2641061350523985</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4006457756147726</v>
       </c>
       <c r="E17" t="n">
-        <v>2.288512454732401</v>
+        <v>2.284814152918129</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6864859154474372</v>
+        <v>-0.6841352380210741</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3735498798988237</v>
+        <v>0.3745748336586416</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5732452435497083</v>
       </c>
       <c r="E18" t="n">
-        <v>3.050407889963196</v>
+        <v>3.045842319582924</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9645987958999079</v>
+        <v>-0.9611779032229089</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4848902272153392</v>
+        <v>0.486204270497157</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7706152890739011</v>
       </c>
       <c r="E19" t="n">
-        <v>3.678291351121846</v>
+        <v>3.673391429728756</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.204230648868389</v>
+        <v>-1.200999562443208</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6049353812498525</v>
+        <v>0.6055982430831249</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9918942278047318</v>
       </c>
       <c r="E20" t="n">
-        <v>4.336799320987305</v>
+        <v>4.33102337073967</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.464265213859228</v>
+        <v>-1.460737737671593</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7173065225185495</v>
+        <v>0.7184804011836401</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.228520987601806</v>
       </c>
       <c r="E21" t="n">
-        <v>4.859470256666983</v>
+        <v>4.852923401027348</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.73604878583761</v>
+        <v>-1.732115416280702</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8647640794598735</v>
+        <v>0.8658634956723278</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.468765080903462</v>
       </c>
       <c r="E22" t="n">
-        <v>5.375267285934663</v>
+        <v>5.36727790278121</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.955940788617005</v>
+        <v>-1.950948884194188</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9517931660146683</v>
+        <v>0.9524312070303955</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.697222552533471</v>
       </c>
       <c r="E23" t="n">
-        <v>5.720554058953661</v>
+        <v>5.713182276142662</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.203904406016257</v>
+        <v>-2.19857523048444</v>
       </c>
       <c r="G23" t="n">
-        <v>1.061524540335003</v>
+        <v>1.062834203472548</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.897751524318807</v>
       </c>
       <c r="E24" t="n">
-        <v>6.141630468323639</v>
+        <v>6.132873099874368</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432398282123241</v>
+        <v>-2.42664423259697</v>
       </c>
       <c r="G24" t="n">
-        <v>1.181090798595698</v>
+        <v>1.182489524666788</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.059389170445774</v>
       </c>
       <c r="E25" t="n">
-        <v>6.429227821174652</v>
+        <v>6.419260072858019</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.55691045329189</v>
+        <v>-2.551376871027346</v>
       </c>
       <c r="G25" t="n">
-        <v>1.255141517670405</v>
+        <v>1.25627451498895</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.173609114492571</v>
       </c>
       <c r="E26" t="n">
-        <v>6.591515086575336</v>
+        <v>6.580477123008066</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.606672542350285</v>
+        <v>-2.600909002511423</v>
       </c>
       <c r="G26" t="n">
-        <v>1.318669670153934</v>
+        <v>1.319566139681752</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.23516685208543</v>
       </c>
       <c r="E27" t="n">
-        <v>6.695146379971853</v>
+        <v>6.683722963708584</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.689196650520581</v>
+        <v>-2.683243304429901</v>
       </c>
       <c r="G27" t="n">
-        <v>1.330037604589749</v>
+        <v>1.331223163639567</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.244051231755435</v>
       </c>
       <c r="E28" t="n">
-        <v>6.876347108342168</v>
+        <v>6.86505363635899</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.716599563114801</v>
+        <v>-2.711636129629757</v>
       </c>
       <c r="G28" t="n">
-        <v>1.369875016750193</v>
+        <v>1.370682423344465</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.203519000154034</v>
       </c>
       <c r="E29" t="n">
-        <v>6.839714501741269</v>
+        <v>6.828137780428454</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.737073087469569</v>
+        <v>-2.732146155186797</v>
       </c>
       <c r="G29" t="n">
-        <v>1.355700869883651</v>
+        <v>1.355757811759196</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.121218290782939</v>
       </c>
       <c r="E30" t="n">
-        <v>6.774437211644832</v>
+        <v>6.763318945432562</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.641098286261776</v>
+        <v>-2.636723252157368</v>
       </c>
       <c r="G30" t="n">
-        <v>1.338878195780201</v>
+        <v>1.338751171596292</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.009791111784292</v>
       </c>
       <c r="E31" t="n">
-        <v>6.795715952521736</v>
+        <v>6.785079502179466</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.542137686708075</v>
+        <v>-2.538548158476576</v>
       </c>
       <c r="G31" t="n">
-        <v>1.300426369258029</v>
+        <v>1.300397168296211</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.880299287848129</v>
       </c>
       <c r="E32" t="n">
-        <v>6.752828499899383</v>
+        <v>6.742707446533204</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.409116355265611</v>
+        <v>-2.406472938197021</v>
       </c>
       <c r="G32" t="n">
-        <v>1.253589486549769</v>
+        <v>1.25322155443086</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.744576007719594</v>
       </c>
       <c r="E33" t="n">
-        <v>6.585184318053155</v>
+        <v>6.574384342324704</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373718219325575</v>
+        <v>-2.371744234306667</v>
       </c>
       <c r="G33" t="n">
-        <v>1.195590536186512</v>
+        <v>1.195095579883694</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.612573093767304</v>
       </c>
       <c r="E34" t="n">
-        <v>6.288946400600144</v>
+        <v>6.279983165370056</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.337162265249448</v>
+        <v>-2.336118330864449</v>
       </c>
       <c r="G34" t="n">
-        <v>1.145576588832435</v>
+        <v>1.145300639743253</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.488097461151687</v>
       </c>
       <c r="E35" t="n">
-        <v>6.093082409252833</v>
+        <v>6.085422996967926</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.298660067068141</v>
+        <v>-2.29679558565605</v>
       </c>
       <c r="G35" t="n">
-        <v>1.085349605082451</v>
+        <v>1.085803680038723</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.376156688253805</v>
       </c>
       <c r="E36" t="n">
-        <v>5.895943795922159</v>
+        <v>5.888242042242616</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.235831277620158</v>
+        <v>-2.234974229390794</v>
       </c>
       <c r="G36" t="n">
-        <v>1.062349467506366</v>
+        <v>1.062550954142911</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.278552552749198</v>
       </c>
       <c r="E37" t="n">
-        <v>5.59101713228015</v>
+        <v>5.58372273201797</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.190634028917988</v>
+        <v>-2.189220702365988</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9577034406866668</v>
+        <v>0.9580377916994849</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.194015552909428</v>
       </c>
       <c r="E38" t="n">
-        <v>5.284899069395959</v>
+        <v>5.277759434231416</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.144356344628546</v>
+        <v>-2.143059091899773</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8842411209925957</v>
+        <v>0.8847535978725045</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.125103306109007</v>
       </c>
       <c r="E39" t="n">
-        <v>4.969083367091954</v>
+        <v>4.962535051404227</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.085695262456062</v>
+        <v>-2.084915596775516</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8037939312316172</v>
+        <v>0.8044597131610716</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.072434709567036</v>
       </c>
       <c r="E40" t="n">
-        <v>4.677945397620486</v>
+        <v>4.672354873480397</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104567114055102</v>
+        <v>-2.104406508765102</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7630410689181736</v>
+        <v>0.7635535457980825</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.033384715613778</v>
       </c>
       <c r="E41" t="n">
-        <v>4.357917456574208</v>
+        <v>4.3519765208923</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.99951519386613</v>
+        <v>-1.99884065164813</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6836290532536495</v>
+        <v>0.6841867916243766</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.008692599244256</v>
       </c>
       <c r="E42" t="n">
-        <v>3.981308271860946</v>
+        <v>3.976757301961583</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.909078355067154</v>
+        <v>-1.908162174890109</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6041688560021253</v>
+        <v>0.6043834830714889</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9938556531272313</v>
       </c>
       <c r="E43" t="n">
-        <v>3.68074131181839</v>
+        <v>3.676844443463755</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.85664364797835</v>
+        <v>-1.855799740181805</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5641766787440452</v>
+        <v>0.5645051895644997</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9838758975427292</v>
       </c>
       <c r="E44" t="n">
-        <v>3.380406499422289</v>
+        <v>3.377445521893926</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.761820094690239</v>
+        <v>-1.761358719493512</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5145788450958767</v>
+        <v>0.5152168861116038</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.97540915328708</v>
       </c>
       <c r="E45" t="n">
-        <v>3.098171903209183</v>
+        <v>3.094945196928275</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.679232474427989</v>
+        <v>-1.678753578654171</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4202509781346293</v>
+        <v>0.4211956292494472</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.963624805260709</v>
       </c>
       <c r="E46" t="n">
-        <v>2.804058355728444</v>
+        <v>2.801091538007717</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600836652234737</v>
+        <v>-1.600124148766374</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3824474129648213</v>
+        <v>0.3835336887444573</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.9454208051560274</v>
       </c>
       <c r="E47" t="n">
-        <v>2.475040898586441</v>
+        <v>2.472106201923715</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.479735883430497</v>
+        <v>-1.479343130494043</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3186170305264748</v>
+        <v>0.3197923692396563</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9201132265666593</v>
       </c>
       <c r="E48" t="n">
-        <v>2.183356871128974</v>
+        <v>2.181006193702611</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.375780459357798</v>
+        <v>-1.376063708687434</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2896642768837553</v>
+        <v>0.2906016277581187</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8867065773605424</v>
       </c>
       <c r="E49" t="n">
-        <v>1.903967908645049</v>
+        <v>1.902068386078777</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.290167619451184</v>
+        <v>-1.290215801038184</v>
       </c>
       <c r="G49" t="n">
-        <v>0.235792882473497</v>
+        <v>0.2371726279194057</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8472479009373766</v>
       </c>
       <c r="E50" t="n">
-        <v>1.769493099328085</v>
+        <v>1.767673879406813</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.16902888939658</v>
+        <v>-1.169250816706398</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1972592932582346</v>
+        <v>0.1984258716828707</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.804556959441406</v>
       </c>
       <c r="E51" t="n">
-        <v>1.495789564110159</v>
+        <v>1.494983617563977</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.093434899489782</v>
+        <v>-1.093347296604328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1662230509897884</v>
+        <v>0.1671677021046064</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.760270511830485</v>
       </c>
       <c r="E52" t="n">
-        <v>1.337667815912837</v>
+        <v>1.337412307496928</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.010837058890895</v>
+        <v>-1.011240032163986</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1436842886104308</v>
+        <v>0.1444464337138852</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.7178371347079323</v>
       </c>
       <c r="E53" t="n">
-        <v>1.095780188643902</v>
+        <v>1.095805009461448</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9379704388179151</v>
+        <v>-0.9383996929566423</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1002624583868061</v>
+        <v>0.1008450175750787</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.679558317077575</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9510938029791232</v>
+        <v>0.9520107131802138</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.945343681677004</v>
+        <v>-0.9459846427889129</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04923377760954711</v>
+        <v>0.04974917458563787</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.6459066514018105</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7903994500456208</v>
+        <v>0.7909644886568025</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8988864114723801</v>
+        <v>-0.8985871016137439</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02211338432091802</v>
+        <v>0.02257329946955426</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.618634334383466</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6453641128871143</v>
+        <v>0.645864909382296</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8500200619177569</v>
+        <v>-0.850098904514666</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01548184589201071</v>
+        <v>0.01576217512546518</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.5974264944793505</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5018778867530619</v>
+        <v>0.502915980945698</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8183340982488563</v>
+        <v>-0.8181384518046745</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01224446735434548</v>
+        <v>-0.01145604138525478</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.5808873562275912</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3922589361357277</v>
+        <v>0.3936430617259092</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8127158331950396</v>
+        <v>-0.8118091433305853</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02778667928206858</v>
+        <v>-0.027588112741705</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.5689453054153333</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2461928050250397</v>
+        <v>0.2474002647962212</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7480415429601479</v>
+        <v>-0.7470545504506936</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09243322860323304</v>
+        <v>-0.092241962303324</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.5597187516030742</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1863585742115103</v>
+        <v>0.1874448499911464</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.731503578234425</v>
+        <v>-0.7303939416853344</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08005494088850909</v>
+        <v>-0.07960816617269102</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.5518616804399747</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02860183803691628</v>
+        <v>0.02975965617300688</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7036925821987962</v>
+        <v>-0.7026457277176147</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1363441749373122</v>
+        <v>-0.136443458207494</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.5450026171820721</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05852069159569669</v>
+        <v>-0.05799507428296956</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7222278927128821</v>
+        <v>-0.7209255298157915</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1687922837096671</v>
+        <v>-0.1688273248638489</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.5373215177268773</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1517418421040353</v>
+        <v>-0.1512439657050354</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7559608438052366</v>
+        <v>-0.7544555342235099</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1838833407772994</v>
+        <v>-0.1837767572666631</v>
       </c>
     </row>
     <row r="64">
@@ -1908,10 +1908,10 @@
         <v>-0.264886808860914</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7586925937833269</v>
+        <v>-0.7574325722808727</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.217296541337745</v>
+        <v>-0.2175067882628358</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.5191361432407805</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4178064057103275</v>
+        <v>-0.4180414734529638</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.740523755340059</v>
+        <v>-0.7391308694613321</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2376890330234668</v>
+        <v>-0.2379138804294667</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.5072848524157375</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4432711044638661</v>
+        <v>-0.4433265862913207</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7710329202476872</v>
+        <v>-0.7701714918740511</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2536502787532807</v>
+        <v>-0.2540868331324623</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.4933622870621245</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5293029781725703</v>
+        <v>-0.5297424526479338</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8113565284224036</v>
+        <v>-0.8102965335084039</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2686785537530039</v>
+        <v>-0.2690260451986402</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.4771863248537402</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5635367257601065</v>
+        <v>-0.5637279920600156</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7613367408759625</v>
+        <v>-0.7608695254868717</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3197437357325356</v>
+        <v>-0.319162636592354</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.4579996329024744</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6441795619652667</v>
+        <v>-0.6440452375409031</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8068157788596776</v>
+        <v>-0.8061718976515868</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3184676537010814</v>
+        <v>-0.318474953941536</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.4374877348480073</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7532174134424192</v>
+        <v>-0.7530524280081465</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8044461208081327</v>
+        <v>-0.8037204769069511</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3578509909052527</v>
+        <v>-0.3575721217198891</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.4167335391043504</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7816606103014117</v>
+        <v>-0.7816343294357753</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9322353699168258</v>
+        <v>-0.9315330867850986</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4021926514261498</v>
+        <v>-0.4017852980087863</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.3963907156738127</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8242764939788547</v>
+        <v>-0.8250766003326727</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9989230664690806</v>
+        <v>-0.9978703717955354</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.420101601309236</v>
+        <v>-0.4195146619766907</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.3779557833689567</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8749080416753866</v>
+        <v>-0.8750219254264775</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.032962627660526</v>
+        <v>-1.031401836251345</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4530665671057726</v>
+        <v>-0.4527789376318636</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.3612735692326052</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8175412921354929</v>
+        <v>-0.8171441590547657</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.058101735689792</v>
+        <v>-1.056940997457519</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4675940456103141</v>
+        <v>-0.4670552878647688</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3460039273978421</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8010120876983154</v>
+        <v>-0.8007609594266792</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.122853408473502</v>
+        <v>-1.121105730908684</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4564100772339535</v>
+        <v>-0.4558362783342264</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.3327238299759893</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7174287146380652</v>
+        <v>-0.7171221045389744</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.164969955703854</v>
+        <v>-1.162305367937946</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4591885487509527</v>
+        <v>-0.4584147232627711</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3206179783240671</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5671459646408329</v>
+        <v>-0.5667809526181057</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.149559148104313</v>
+        <v>-1.147303373803859</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4392574322619581</v>
+        <v>-0.4387259747568673</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.3101620080431668</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4288195484600518</v>
+        <v>-0.4292298219735972</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.173606140161579</v>
+        <v>-1.171033535425398</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4517685843529547</v>
+        <v>-0.4508180930457732</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3019646284147492</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3259357996860794</v>
+        <v>-0.3270600367160791</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.254853436276375</v>
+        <v>-1.252784548131558</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3957275584796062</v>
+        <v>-0.3948135683746973</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2956627946211905</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1369427946545847</v>
+        <v>-0.1380305304823117</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.31157922470436</v>
+        <v>-1.309227087229906</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3733026798513394</v>
+        <v>-0.3722426849373397</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2918720132377403</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02118479373510009</v>
+        <v>0.0196765640571914</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.302769294523817</v>
+        <v>-1.300076965844182</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3234843789414437</v>
+        <v>-0.3227412144631712</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.290724040866205</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2329165877344069</v>
+        <v>0.2311908108909528</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.290839241573002</v>
+        <v>-1.287619835532549</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2878606655713624</v>
+        <v>-0.2868984938794535</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2914627134208783</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4155773641956306</v>
+        <v>0.4129667982090858</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.231968642499472</v>
+        <v>-1.229163890116837</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2698422120814581</v>
+        <v>-0.2691384689016401</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2936324109842016</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6226005031017567</v>
+        <v>0.6205651960630301</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.154409427862312</v>
+        <v>-1.152171174138948</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2456024936761919</v>
+        <v>-0.2444753365500104</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2957419924382983</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7376143314149987</v>
+        <v>0.735368777451181</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.066575854809426</v>
+        <v>-1.064647131281336</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2099890006427469</v>
+        <v>-0.2091480129423835</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2957676376992496</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9628661707361199</v>
+        <v>0.9604001495105752</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.000515978936262</v>
+        <v>-0.9986879987264442</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1806945957467548</v>
+        <v>-0.1796097800152096</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2916588573625984</v>
       </c>
       <c r="E87" t="n">
-        <v>1.106549503362445</v>
+        <v>1.103693649296628</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9445158344094587</v>
+        <v>-0.9424995079959139</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1508658132494901</v>
+        <v>-0.1496160120836722</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2813987230436348</v>
       </c>
       <c r="E88" t="n">
-        <v>1.209569036608872</v>
+        <v>1.206429933213418</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8893785783043827</v>
+        <v>-0.8868672955880197</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1145368966514998</v>
+        <v>-0.1132374538505911</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2631923189651771</v>
       </c>
       <c r="E89" t="n">
-        <v>1.331624676864566</v>
+        <v>1.329110474052022</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7920079711216815</v>
+        <v>-0.7896631338876822</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.112694315960773</v>
+        <v>-0.1117058634032279</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2355348264900843</v>
       </c>
       <c r="E90" t="n">
-        <v>1.370037082088283</v>
+        <v>1.36762070249783</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6919800764135265</v>
+        <v>-0.6895622367749817</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07848392914269132</v>
+        <v>-0.07773200437587335</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1973149439897468</v>
       </c>
       <c r="E91" t="n">
-        <v>1.414765655353271</v>
+        <v>1.412692387064181</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5862098125638278</v>
+        <v>-0.5835101836437375</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0177021271181622</v>
+        <v>-0.01706262605434419</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1480342168492711</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438535238273265</v>
+        <v>1.436403568060538</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.457808803305044</v>
+        <v>-0.455282920107772</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02071420632970684</v>
+        <v>-0.02001046314988885</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08920497343243697</v>
       </c>
       <c r="E93" t="n">
-        <v>1.410251186656182</v>
+        <v>1.408376484907455</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3489768186087096</v>
+        <v>-0.3470656156577101</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01403302626570864</v>
+        <v>-0.01327672135461793</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02328827172750154</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410316888820273</v>
+        <v>1.407849407546637</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2098313154489288</v>
+        <v>-0.2070995654708386</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01703488514061692</v>
+        <v>-0.01676185614761699</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04530286830805275</v>
       </c>
       <c r="E95" t="n">
-        <v>1.336361072871474</v>
+        <v>1.33400893539702</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09388013626132356</v>
+        <v>-0.09189885100196045</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01923663766170724</v>
+        <v>-0.01885848520616188</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1126184856194671</v>
       </c>
       <c r="E96" t="n">
-        <v>1.258299601691041</v>
+        <v>1.255169258584132</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03282867726009697</v>
+        <v>0.0344128294387329</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03402546477452145</v>
+        <v>-0.03351152784652159</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1744524188096786</v>
       </c>
       <c r="E97" t="n">
-        <v>1.176636191870335</v>
+        <v>1.172974391258336</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1328901530743428</v>
+        <v>0.1333894895214336</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0527155403862437</v>
+        <v>-0.05221474389106202</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2286425473024043</v>
       </c>
       <c r="E98" t="n">
-        <v>1.078932693722907</v>
+        <v>1.07643163134318</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1938617613506901</v>
+        <v>0.1942968556817809</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05784176923342414</v>
+        <v>-0.05749281773969697</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.272889981848584</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9416151707729439</v>
+        <v>0.9393024545969445</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1953831314614169</v>
+        <v>0.1952196060752352</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05280022317551641</v>
+        <v>-0.0526980198091528</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3084070862584145</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8473807468895146</v>
+        <v>0.8449687474433334</v>
       </c>
       <c r="F100" t="n">
-        <v>0.211661207626958</v>
+        <v>0.2113721181049581</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04605918113979095</v>
+        <v>-0.0458679148398819</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.335866506472944</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6954481425495554</v>
+        <v>0.6931806878643741</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1983163680760525</v>
+        <v>0.1982462857676889</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04985676622424447</v>
+        <v>-0.04956621665415364</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.357480115127247</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6353788439933897</v>
+        <v>0.6330617476731176</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2067948673399593</v>
+        <v>0.2071014774390502</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08199534480132675</v>
+        <v>-0.08142154590159963</v>
       </c>
     </row>
   </sheetData>
